--- a/DaySale_2025-05-26_23-39.xlsx
+++ b/DaySale_2025-05-26_23-39.xlsx
@@ -416,6 +416,12 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -645,9 +651,6 @@
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
   </si>
   <si>
     <t>32.6400</t>
@@ -1651,7 +1654,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2212,7 +2215,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2509,7 +2512,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2575,7 +2578,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2589,10 +2592,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2601,7 +2604,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2700,7 +2703,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2750,11 +2753,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>35</v>
@@ -2766,7 +2769,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>35</v>
@@ -2799,7 +2802,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2816,7 +2819,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2832,7 +2835,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>35</v>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2964,28 +2967,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>35</v>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>35</v>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>35</v>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>84</v>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>35</v>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>35</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3307,15 +3310,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>35</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>35</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3459,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,7 +3545,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>84</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>88</v>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3637,15 +3640,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>70</v>
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3670,15 +3673,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>63</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3703,11 +3706,11 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3723,24 +3726,24 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3769,15 +3772,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3802,11 +3805,11 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3835,15 +3838,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>35</v>
@@ -3855,7 +3858,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3868,7 +3871,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3884,13 +3887,13 @@
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="P84" s="13">
-        <v>4674.8599999999997</v>
+        <v>4642.6999999999998</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c t="s" r="A85" s="14">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3898,13 +3901,13 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c t="s" r="G85" s="15">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
       <c t="s" r="K85" s="17">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
